--- a/UCLA.xlsx
+++ b/UCLA.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23117"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38320" windowHeight="21160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Comp controls" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="96">
   <si>
     <t>Marker</t>
   </si>
@@ -64,9 +64,6 @@
     <t>T, B, DC/mono/NK, Th1/2/17</t>
   </si>
   <si>
-    <t>CD127 Alexa 647</t>
-  </si>
-  <si>
     <t>T cell, Th1/2/17</t>
   </si>
   <si>
@@ -265,40 +262,65 @@
     <t>Compensation Controls_CD3+19+20 APC-H7 Stained Control.fcs</t>
   </si>
   <si>
-    <t>PE-A</t>
-  </si>
-  <si>
-    <t>PE-Cy7-A</t>
-  </si>
-  <si>
-    <t>APC-H7-A</t>
-  </si>
-  <si>
-    <t>V450</t>
-  </si>
-  <si>
-    <t>V500</t>
-  </si>
-  <si>
-    <t>FITC</t>
-  </si>
-  <si>
-    <t>PerCP-Cy5-5-A</t>
-  </si>
-  <si>
-    <t>APC-A</t>
+    <t>LIVE GREEN:FITC</t>
+  </si>
+  <si>
+    <t>CD197:PE-A</t>
+  </si>
+  <si>
+    <t>CD4:PerCP-Cy5-5-A</t>
+  </si>
+  <si>
+    <t>CD45RA:PE-Cy7-A</t>
+  </si>
+  <si>
+    <t>CD194:PE-Cy7-A</t>
+  </si>
+  <si>
+    <t>CD27:PE-Cy7-A</t>
+  </si>
+  <si>
+    <t>CD11C:PE-Cy7-A</t>
+  </si>
+  <si>
+    <t>CD196:PE-Cy7-A</t>
+  </si>
+  <si>
+    <t>CD38:APC-A</t>
+  </si>
+  <si>
+    <t>CD127:Alexa 647</t>
+  </si>
+  <si>
+    <t>CD8:APC-H7-A</t>
+  </si>
+  <si>
+    <t>CD45RO:APC-H7-A</t>
+  </si>
+  <si>
+    <t>CD20:APC-H7-A</t>
+  </si>
+  <si>
+    <t>CD3+19+20:APC-H7-A</t>
+  </si>
+  <si>
+    <t>CD3:V450</t>
+  </si>
+  <si>
+    <t>HLA-DR:V500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -323,6 +345,14 @@
       <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -390,7 +420,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -409,6 +439,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -780,7 +811,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -794,7 +825,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -814,7 +845,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -837,10 +868,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s">
-        <v>86</v>
+        <v>64</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>80</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -860,7 +891,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B5" t="s">
         <v>81</v>
@@ -883,10 +914,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -906,10 +937,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -929,10 +960,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -950,10 +981,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B9" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -973,10 +1004,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -996,10 +1027,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1019,7 +1050,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
         <v>88</v>
@@ -1042,10 +1073,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1065,13 +1096,13 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" s="3">
         <v>22500</v>
@@ -1088,10 +1119,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1111,10 +1142,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -1132,10 +1163,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1155,10 +1186,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B18" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -1178,10 +1209,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -1228,32 +1259,32 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -1267,7 +1298,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" t="s">
@@ -1282,7 +1313,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" t="s">
@@ -1297,7 +1328,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" t="s">
@@ -1312,7 +1343,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" t="s">
@@ -1327,7 +1358,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="7"/>
       <c r="C9" t="s">
@@ -1342,7 +1373,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" t="s">
@@ -1357,7 +1388,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" t="s">
@@ -1372,7 +1403,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" t="s">
@@ -1387,7 +1418,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" t="s">
@@ -1402,7 +1433,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" t="s">
@@ -1417,7 +1448,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" t="s">
@@ -1432,7 +1463,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" t="s">
@@ -1447,7 +1478,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" t="s">
@@ -1462,7 +1493,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" t="s">
@@ -1477,7 +1508,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" t="s">
@@ -1492,7 +1523,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" t="s">
@@ -1507,7 +1538,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" t="s">
@@ -1522,7 +1553,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" t="s">
@@ -1537,7 +1568,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="7"/>
       <c r="C23" t="s">
@@ -1552,7 +1583,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" t="s">
@@ -1567,7 +1598,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="7"/>
       <c r="C25" t="s">
@@ -1582,7 +1613,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" t="s">
@@ -1597,7 +1628,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="7"/>
       <c r="C27" t="s">
@@ -1612,7 +1643,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="7"/>
       <c r="C28" t="s">
@@ -1627,7 +1658,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="7"/>
       <c r="C29" t="s">
@@ -1642,7 +1673,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" s="7"/>
       <c r="C30" t="s">
@@ -1657,7 +1688,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" t="s">
@@ -1672,7 +1703,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" s="7"/>
       <c r="C32" t="s">
@@ -1687,7 +1718,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" s="7"/>
       <c r="C33" t="s">
@@ -1702,7 +1733,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" t="s">
@@ -1717,7 +1748,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" t="s">
@@ -1732,7 +1763,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" t="s">
@@ -1747,7 +1778,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" s="7"/>
       <c r="C37" t="s">
@@ -1762,7 +1793,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" s="7"/>
       <c r="C38" t="s">
@@ -1777,7 +1808,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" t="s">
@@ -1792,7 +1823,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" s="7"/>
       <c r="C40" t="s">
@@ -1807,7 +1838,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" t="s">
@@ -1822,7 +1853,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" s="7"/>
       <c r="C42" t="s">
@@ -1837,7 +1868,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" s="7"/>
       <c r="C43" t="s">
@@ -1852,7 +1883,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" s="7"/>
       <c r="C44" t="s">
@@ -1867,7 +1898,7 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" s="7"/>
       <c r="C45" t="s">
@@ -1882,7 +1913,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" t="s">
@@ -1897,7 +1928,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B47" s="7"/>
       <c r="C47" t="s">
@@ -1912,7 +1943,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B48" s="7"/>
       <c r="C48" t="s">

--- a/UCLA.xlsx
+++ b/UCLA.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" tabRatio="500"/>
@@ -214,57 +214,6 @@
     <t>TH 22013_1349_003.fcs</t>
   </si>
   <si>
-    <t>Compensation Controls_LIVE DEAD FITC Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD197 PE Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD4 PerCP-Cy5-5 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD45RA PE-Cy7 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD27 PE-Cy7 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD194 PE-Cy7 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD11C PE-Cy7 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD196 PE-Cy7 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD38 APC Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD127 APC Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD8 APC-H7 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD45RO APC-H7 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD20 APC-H7 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD3 BD Horizon V450 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_HLA-DR BD Horizon V500 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>Compensation Controls_CD3+19+20 APC-H7 Stained Control.fcs</t>
-  </si>
-  <si>
-    <t>LIVE GREEN:FITC</t>
-  </si>
-  <si>
     <t>CD197:PE-A</t>
   </si>
   <si>
@@ -289,9 +238,6 @@
     <t>CD38:APC-A</t>
   </si>
   <si>
-    <t>CD127:Alexa 647</t>
-  </si>
-  <si>
     <t>CD8:APC-H7-A</t>
   </si>
   <si>
@@ -304,23 +250,76 @@
     <t>CD3+19+20:APC-H7-A</t>
   </si>
   <si>
-    <t>CD3:V450</t>
-  </si>
-  <si>
-    <t>HLA-DR:V500</t>
+    <t>CD127:APC-A</t>
+  </si>
+  <si>
+    <t>LIVE DEAD:FITC-A</t>
+  </si>
+  <si>
+    <t>CD3:V450-A</t>
+  </si>
+  <si>
+    <t>HLA-DR:V500-A</t>
+  </si>
+  <si>
+    <t>Compensation Controls_LIVE DEAD FITC-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD197 PE-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD4 PerCP-Cy5-5-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD45RA PE-Cy7-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD194 PE-Cy7-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD27 PE-Cy7-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD11C PE-Cy7-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD196 PE-Cy7-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD38 APC-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD127 APC-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD8 APC-H7-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD45RO APC-H7-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD20 APC-H7-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD3+19+20 APC-H7-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_CD3 BD Horizon V450-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>Compensation Controls_HLA-DR BD Horizon V500-A Stained Control.fcs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,6 +352,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -436,10 +441,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -811,13 +816,13 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="51.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="59.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="16.33203125" customWidth="1"/>
@@ -868,10 +873,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="8" t="s">
         <v>80</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -891,10 +896,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -914,10 +919,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="B6" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -937,10 +942,10 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -960,10 +965,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="B8" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -981,10 +986,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" t="s">
         <v>68</v>
-      </c>
-      <c r="B9" t="s">
-        <v>85</v>
       </c>
       <c r="C9" t="s">
         <v>10</v>
@@ -1004,10 +1009,10 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -1027,10 +1032,10 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
         <v>12</v>
@@ -1050,10 +1055,10 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
@@ -1073,10 +1078,10 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -1096,10 +1101,10 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1119,10 +1124,10 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1142,10 +1147,10 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C16" t="s">
         <v>10</v>
@@ -1163,10 +1168,10 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B17" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
@@ -1186,10 +1191,10 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -1209,10 +1214,10 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -1231,6 +1236,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -1283,7 +1289,7 @@
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="C4" t="s">
@@ -1300,7 +1306,7 @@
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="8"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -1315,7 +1321,7 @@
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="8"/>
       <c r="C6" t="s">
         <v>7</v>
       </c>
@@ -1330,7 +1336,7 @@
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="8"/>
       <c r="C7" t="s">
         <v>7</v>
       </c>
@@ -1345,7 +1351,7 @@
       <c r="A8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="8"/>
       <c r="C8" t="s">
         <v>7</v>
       </c>
@@ -1360,7 +1366,7 @@
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="8"/>
       <c r="C9" t="s">
         <v>7</v>
       </c>
@@ -1375,7 +1381,7 @@
       <c r="A10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="8"/>
       <c r="C10" t="s">
         <v>7</v>
       </c>
@@ -1390,7 +1396,7 @@
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="8"/>
       <c r="C11" t="s">
         <v>7</v>
       </c>
@@ -1405,7 +1411,7 @@
       <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="8"/>
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -1420,7 +1426,7 @@
       <c r="A13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="8"/>
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -1435,7 +1441,7 @@
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="8"/>
       <c r="C14" t="s">
         <v>8</v>
       </c>
@@ -1450,7 +1456,7 @@
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="8"/>
       <c r="C15" t="s">
         <v>8</v>
       </c>
@@ -1465,7 +1471,7 @@
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="8"/>
       <c r="C16" t="s">
         <v>8</v>
       </c>
@@ -1480,7 +1486,7 @@
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="8"/>
       <c r="C17" t="s">
         <v>8</v>
       </c>
@@ -1495,7 +1501,7 @@
       <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="8"/>
       <c r="C18" t="s">
         <v>8</v>
       </c>
@@ -1510,7 +1516,7 @@
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="8"/>
       <c r="C19" t="s">
         <v>8</v>
       </c>
@@ -1525,7 +1531,7 @@
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="8"/>
       <c r="C20" t="s">
         <v>8</v>
       </c>
@@ -1540,7 +1546,7 @@
       <c r="A21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="8"/>
       <c r="C21" t="s">
         <v>8</v>
       </c>
@@ -1555,7 +1561,7 @@
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="8"/>
       <c r="C22" t="s">
         <v>10</v>
       </c>
@@ -1570,7 +1576,7 @@
       <c r="A23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="8"/>
       <c r="C23" t="s">
         <v>10</v>
       </c>
@@ -1585,7 +1591,7 @@
       <c r="A24" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="8"/>
       <c r="C24" t="s">
         <v>10</v>
       </c>
@@ -1600,7 +1606,7 @@
       <c r="A25" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="8"/>
       <c r="C25" t="s">
         <v>10</v>
       </c>
@@ -1615,7 +1621,7 @@
       <c r="A26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="8"/>
       <c r="C26" t="s">
         <v>10</v>
       </c>
@@ -1630,7 +1636,7 @@
       <c r="A27" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="8"/>
       <c r="C27" t="s">
         <v>10</v>
       </c>
@@ -1645,7 +1651,7 @@
       <c r="A28" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="8"/>
       <c r="C28" t="s">
         <v>10</v>
       </c>
@@ -1660,7 +1666,7 @@
       <c r="A29" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B29" s="7"/>
+      <c r="B29" s="8"/>
       <c r="C29" t="s">
         <v>10</v>
       </c>
@@ -1675,7 +1681,7 @@
       <c r="A30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="8"/>
       <c r="C30" t="s">
         <v>10</v>
       </c>
@@ -1690,7 +1696,7 @@
       <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="8"/>
       <c r="C31" t="s">
         <v>11</v>
       </c>
@@ -1705,7 +1711,7 @@
       <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="8"/>
       <c r="C32" t="s">
         <v>11</v>
       </c>
@@ -1720,7 +1726,7 @@
       <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="7"/>
+      <c r="B33" s="8"/>
       <c r="C33" t="s">
         <v>11</v>
       </c>
@@ -1735,7 +1741,7 @@
       <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="8"/>
       <c r="C34" t="s">
         <v>11</v>
       </c>
@@ -1750,7 +1756,7 @@
       <c r="A35" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="8"/>
       <c r="C35" t="s">
         <v>11</v>
       </c>
@@ -1765,7 +1771,7 @@
       <c r="A36" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B36" s="7"/>
+      <c r="B36" s="8"/>
       <c r="C36" t="s">
         <v>11</v>
       </c>
@@ -1780,7 +1786,7 @@
       <c r="A37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="8"/>
       <c r="C37" t="s">
         <v>11</v>
       </c>
@@ -1795,7 +1801,7 @@
       <c r="A38" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B38" s="8"/>
       <c r="C38" t="s">
         <v>11</v>
       </c>
@@ -1810,7 +1816,7 @@
       <c r="A39" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="7"/>
+      <c r="B39" s="8"/>
       <c r="C39" t="s">
         <v>11</v>
       </c>
@@ -1825,7 +1831,7 @@
       <c r="A40" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B40" s="7"/>
+      <c r="B40" s="8"/>
       <c r="C40" t="s">
         <v>12</v>
       </c>
@@ -1840,7 +1846,7 @@
       <c r="A41" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="8"/>
       <c r="C41" t="s">
         <v>12</v>
       </c>
@@ -1855,7 +1861,7 @@
       <c r="A42" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="8"/>
       <c r="C42" t="s">
         <v>12</v>
       </c>
@@ -1870,7 +1876,7 @@
       <c r="A43" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="8"/>
       <c r="C43" t="s">
         <v>12</v>
       </c>
@@ -1885,7 +1891,7 @@
       <c r="A44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="8"/>
       <c r="C44" t="s">
         <v>12</v>
       </c>
@@ -1900,7 +1906,7 @@
       <c r="A45" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="8"/>
       <c r="C45" t="s">
         <v>12</v>
       </c>
@@ -1915,7 +1921,7 @@
       <c r="A46" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="8"/>
       <c r="C46" t="s">
         <v>12</v>
       </c>
@@ -1930,7 +1936,7 @@
       <c r="A47" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="8"/>
       <c r="C47" t="s">
         <v>12</v>
       </c>
@@ -1945,7 +1951,7 @@
       <c r="A48" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B48" s="7"/>
+      <c r="B48" s="8"/>
       <c r="C48" t="s">
         <v>12</v>
       </c>

--- a/UCLA.xlsx
+++ b/UCLA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28720" windowHeight="17560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Comp controls" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="99">
   <si>
     <t>Marker</t>
   </si>
@@ -308,6 +308,15 @@
   </si>
   <si>
     <t>Compensation Controls_HLA-DR BD Horizon V500-A Stained Control.fcs</t>
+  </si>
+  <si>
+    <t>TH 22013_1369_001.fcs</t>
+  </si>
+  <si>
+    <t>TH 22013_1369_002.fcs</t>
+  </si>
+  <si>
+    <t>TH 22013_1369_003.fcs</t>
   </si>
 </sst>
 </file>
@@ -815,7 +824,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1251,8 +1260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1919,7 +1928,7 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B46" s="8"/>
       <c r="C46" t="s">
@@ -1934,7 +1943,7 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="1" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="B47" s="8"/>
       <c r="C47" t="s">
@@ -1949,7 +1958,7 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="1" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="B48" s="8"/>
       <c r="C48" t="s">
